--- a/test/validation/Scenarios/NervousValidation.xlsx
+++ b/test/validation/Scenarios/NervousValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E190C-E142-466E-8BC7-9C1AE5A9BA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-210" windowWidth="20010" windowHeight="7995"/>
+    <workbookView xWindow="17325" yWindow="7245" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Baroreceptors!$B$2:$L$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -209,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,16 +919,16 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Bad 2" xfId="45"/>
-    <cellStyle name="Bad 3" xfId="47"/>
-    <cellStyle name="Bad 4" xfId="43"/>
+    <cellStyle name="Bad 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Bad 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Bad 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Good 2" xfId="44"/>
-    <cellStyle name="Good 3" xfId="46"/>
-    <cellStyle name="Good 4" xfId="42"/>
+    <cellStyle name="Good 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Good 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Good 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
@@ -934,6 +948,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -982,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1015,9 +1032,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,6 +1084,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1225,14 +1276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,11 +1521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,14 +1596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,11 +1764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,12 +2240,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2312,15 +2360,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2342,16 +2400,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>